--- a/K-工程管理/新Data管理仕様.xlsx
+++ b/K-工程管理/新Data管理仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\K-工程管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F890D0-410A-46A4-952E-0F33912BAF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61211145-BA8E-4C9B-B150-3D56093CE16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,54 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Smasta移行情報" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>mng-1</author>
+  </authors>
+  <commentList>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{8AF3D1EB-91AF-42E3-95DB-B26C6BDF5AB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">自動計算なので再計算させる
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
   <si>
     <t>各項目を因数分解していって、紐づけつつデータ管理をしていく手法を考えます。</t>
     <rPh sb="0" eb="1">
@@ -806,6 +843,10 @@
     <rPh sb="0" eb="2">
       <t>エイギョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意先ＣＤ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -813,7 +854,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,8 +913,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,6 +982,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -993,6 +1062,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1485,11 +1556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED3E8A-F998-4B96-8B68-9F2FD8AF9B60}">
-  <dimension ref="B3:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED3E8A-F998-4B96-8B68-9F2FD8AF9B60}">
+  <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1502,7 +1573,7 @@
     <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="19.5" thickBot="1">
+    <row r="3" spans="2:19" ht="19.5" thickBot="1">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -1523,7 +1594,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:19">
       <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
@@ -1545,8 +1616,12 @@
       <c r="H4" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="S4" s="20" t="str">
+        <f>"["&amp;C4&amp;"] = &amp;"&amp;D4</f>
+        <v>[日付] = &amp;日付</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1646,12 @@
       <c r="K5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="S5" s="20" t="str">
+        <f t="shared" ref="S5:S27" si="0">"["&amp;C5&amp;"] = &amp;"&amp;D5</f>
+        <v>[区分] = &amp;区分</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
@@ -1600,8 +1679,12 @@
       <c r="L6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="S6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[営業] = &amp;社員ID</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1623,8 +1706,12 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="S7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[担当営業] = &amp;担当営業名</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1652,8 +1739,12 @@
       <c r="L8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="S8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[所] = &amp;支店ID</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
@@ -1675,8 +1766,12 @@
       <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="S9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[営業所] = &amp;支店名</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1701,13 +1796,17 @@
       <c r="K10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="S10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[伝票ＮＯ] = &amp;伝票ID</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>26</v>
@@ -1724,8 +1823,12 @@
       <c r="H11" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="S11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[得意先ＣＤ] = &amp;得意先ID</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1747,8 +1850,12 @@
       <c r="H12" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="S12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[得意先] = &amp;得意先名</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
@@ -1770,8 +1877,12 @@
       <c r="H13" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="S13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[品名] = &amp;品名</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1793,8 +1904,12 @@
       <c r="H14" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="S14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[部数] = &amp;部数</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1816,8 +1931,12 @@
       <c r="H15" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="S15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[サイズ] = &amp;サイズ</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1835,8 +1954,12 @@
         <v>80</v>
       </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="S16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[頁数] = &amp;頁数</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1858,8 +1981,12 @@
       <c r="H17" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="S17" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[仕上日] = &amp;仕上日</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
@@ -1881,8 +2008,12 @@
       <c r="H18" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="S18" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[組版積算] = &amp;組版積算</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1904,8 +2035,12 @@
       <c r="H19" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="S19" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[製版積算] = &amp;製版積算</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" s="12" t="s">
         <v>52</v>
       </c>
@@ -1927,8 +2062,12 @@
       <c r="H20" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="S20" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[印刷積算] = &amp;印刷積算</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21" s="12" t="s">
         <v>52</v>
       </c>
@@ -1950,12 +2089,16 @@
       <c r="H21" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="S21" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[仕上積算] = &amp;仕上積算</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -1973,8 +2116,12 @@
       <c r="H22" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="S22" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[小計] = &amp;小計</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
@@ -1996,8 +2143,12 @@
       <c r="H23" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="S23" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[積算粗利] = &amp;粗利</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" s="12" t="s">
         <v>52</v>
       </c>
@@ -2019,8 +2170,12 @@
       <c r="H24" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="S24" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[用紙積算] = &amp;用紙積算</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -2042,8 +2197,12 @@
       <c r="H25" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="S25" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[送料] = &amp;送料</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
@@ -2065,8 +2224,12 @@
       <c r="H26" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="S26" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[備考] = &amp;備考</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
       <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2087,10 +2250,16 @@
       </c>
       <c r="H27" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="S27" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>[前回伝票] = &amp;前回伝票IDs</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/K-工程管理/新Data管理仕様.xlsx
+++ b/K-工程管理/新Data管理仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\K-工程管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61211145-BA8E-4C9B-B150-3D56093CE16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8D4F65-15E9-4152-B5DA-27F970C56D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
   <si>
     <t>各項目を因数分解していって、紐づけつつデータ管理をしていく手法を考えます。</t>
     <rPh sb="0" eb="1">
@@ -847,6 +847,72 @@
   </si>
   <si>
     <t>得意先ＣＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆外注区分</t>
+    <rPh sb="1" eb="5">
+      <t>ガイチュウクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組外積算</t>
+    <rPh sb="0" eb="2">
+      <t>クミガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製外積算</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印外積算</t>
+    <rPh sb="0" eb="2">
+      <t>インガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕外積算</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全外積算</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1557,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED3E8A-F998-4B96-8B68-9F2FD8AF9B60}">
-  <dimension ref="B3:S27"/>
+  <dimension ref="B3:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1573,7 +1639,7 @@
     <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" thickBot="1">
+    <row r="3" spans="2:22" ht="19.5" thickBot="1">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -1594,7 +1660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
@@ -1620,8 +1686,12 @@
         <f>"["&amp;C4&amp;"] = &amp;"&amp;D4</f>
         <v>[日付] = &amp;日付</v>
       </c>
-    </row>
-    <row r="5" spans="2:19">
+      <c r="V4" t="str">
+        <f>"&amp;"&amp;D4&amp;" = ["&amp;D4&amp;"]"</f>
+        <v>&amp;日付 = [日付]</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1650,8 +1720,12 @@
         <f t="shared" ref="S5:S27" si="0">"["&amp;C5&amp;"] = &amp;"&amp;D5</f>
         <v>[区分] = &amp;区分</v>
       </c>
-    </row>
-    <row r="6" spans="2:19">
+      <c r="V5" t="str">
+        <f t="shared" ref="V5:V27" si="1">"&amp;"&amp;D5&amp;" = ["&amp;D5&amp;"]"</f>
+        <v>&amp;区分 = [区分]</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
       <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
@@ -1683,8 +1757,12 @@
         <f t="shared" si="0"/>
         <v>[営業] = &amp;社員ID</v>
       </c>
-    </row>
-    <row r="7" spans="2:19">
+      <c r="V6" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;社員ID = [社員ID]</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1710,8 +1788,12 @@
         <f t="shared" si="0"/>
         <v>[担当営業] = &amp;担当営業名</v>
       </c>
-    </row>
-    <row r="8" spans="2:19">
+      <c r="V7" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;担当営業名 = [担当営業名]</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
       <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1743,8 +1825,12 @@
         <f t="shared" si="0"/>
         <v>[所] = &amp;支店ID</v>
       </c>
-    </row>
-    <row r="9" spans="2:19">
+      <c r="V8" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;支店ID = [支店ID]</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
       <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
@@ -1770,8 +1856,12 @@
         <f t="shared" si="0"/>
         <v>[営業所] = &amp;支店名</v>
       </c>
-    </row>
-    <row r="10" spans="2:19">
+      <c r="V9" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;支店名 = [支店名]</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1800,8 +1890,12 @@
         <f t="shared" si="0"/>
         <v>[伝票ＮＯ] = &amp;伝票ID</v>
       </c>
-    </row>
-    <row r="11" spans="2:19">
+      <c r="V10" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;伝票ID = [伝票ID]</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
       <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
@@ -1827,8 +1921,12 @@
         <f t="shared" si="0"/>
         <v>[得意先ＣＤ] = &amp;得意先ID</v>
       </c>
-    </row>
-    <row r="12" spans="2:19">
+      <c r="V11" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;得意先ID = [得意先ID]</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1854,8 +1952,12 @@
         <f t="shared" si="0"/>
         <v>[得意先] = &amp;得意先名</v>
       </c>
-    </row>
-    <row r="13" spans="2:19">
+      <c r="V12" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;得意先名 = [得意先名]</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
@@ -1881,8 +1983,12 @@
         <f t="shared" si="0"/>
         <v>[品名] = &amp;品名</v>
       </c>
-    </row>
-    <row r="14" spans="2:19">
+      <c r="V13" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;品名 = [品名]</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1908,8 +2014,12 @@
         <f t="shared" si="0"/>
         <v>[部数] = &amp;部数</v>
       </c>
-    </row>
-    <row r="15" spans="2:19">
+      <c r="V14" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;部数 = [部数]</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1935,8 +2045,12 @@
         <f t="shared" si="0"/>
         <v>[サイズ] = &amp;サイズ</v>
       </c>
-    </row>
-    <row r="16" spans="2:19">
+      <c r="V15" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;サイズ = [サイズ]</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1958,8 +2072,12 @@
         <f t="shared" si="0"/>
         <v>[頁数] = &amp;頁数</v>
       </c>
-    </row>
-    <row r="17" spans="2:19">
+      <c r="V16" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;頁数 = [頁数]</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
       <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1985,8 +2103,12 @@
         <f t="shared" si="0"/>
         <v>[仕上日] = &amp;仕上日</v>
       </c>
-    </row>
-    <row r="18" spans="2:19">
+      <c r="V17" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;仕上日 = [仕上日]</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
       <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
@@ -2012,8 +2134,12 @@
         <f t="shared" si="0"/>
         <v>[組版積算] = &amp;組版積算</v>
       </c>
-    </row>
-    <row r="19" spans="2:19">
+      <c r="V18" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;組版積算 = [組版積算]</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
       <c r="B19" s="12" t="s">
         <v>52</v>
       </c>
@@ -2039,8 +2165,12 @@
         <f t="shared" si="0"/>
         <v>[製版積算] = &amp;製版積算</v>
       </c>
-    </row>
-    <row r="20" spans="2:19">
+      <c r="V19" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;製版積算 = [製版積算]</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
       <c r="B20" s="12" t="s">
         <v>52</v>
       </c>
@@ -2066,8 +2196,12 @@
         <f t="shared" si="0"/>
         <v>[印刷積算] = &amp;印刷積算</v>
       </c>
-    </row>
-    <row r="21" spans="2:19">
+      <c r="V20" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;印刷積算 = [印刷積算]</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21" s="12" t="s">
         <v>52</v>
       </c>
@@ -2093,8 +2227,12 @@
         <f t="shared" si="0"/>
         <v>[仕上積算] = &amp;仕上積算</v>
       </c>
-    </row>
-    <row r="22" spans="2:19">
+      <c r="V21" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;仕上積算 = [仕上積算]</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22" s="12" t="s">
         <v>52</v>
       </c>
@@ -2120,8 +2258,12 @@
         <f t="shared" si="0"/>
         <v>[小計] = &amp;小計</v>
       </c>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="V22" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;小計 = [小計]</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
@@ -2147,8 +2289,12 @@
         <f t="shared" si="0"/>
         <v>[積算粗利] = &amp;粗利</v>
       </c>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="V23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;粗利 = [粗利]</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" s="12" t="s">
         <v>52</v>
       </c>
@@ -2174,8 +2320,12 @@
         <f t="shared" si="0"/>
         <v>[用紙積算] = &amp;用紙積算</v>
       </c>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="V24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;用紙積算 = [用紙積算]</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -2201,8 +2351,12 @@
         <f t="shared" si="0"/>
         <v>[送料] = &amp;送料</v>
       </c>
-    </row>
-    <row r="26" spans="2:19">
+      <c r="V25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;送料 = [送料]</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
@@ -2228,8 +2382,12 @@
         <f t="shared" si="0"/>
         <v>[備考] = &amp;備考</v>
       </c>
-    </row>
-    <row r="27" spans="2:19">
+      <c r="V26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;備考 = [備考]</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2254,6 +2412,40 @@
       <c r="S27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>[前回伝票] = &amp;前回伝票IDs</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;前回伝票IDs = [前回伝票IDs]</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
